--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikfe\PycharmProjects\Aircraft-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44283062-8925-41A3-9F47-B488AC76CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356F590-4387-406B-A7F1-E627BB13233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5145A631-56B8-4563-A7FF-8B82F0BBC0A2}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15225" xr2:uid="{5145A631-56B8-4563-A7FF-8B82F0BBC0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Sweep at 1/4 chord [deg]</t>
   </si>
   <si>
-    <t>Vertiacal Tail Surface Area [m²]</t>
-  </si>
-  <si>
     <t>Horizontal Tail Surface Area [m²]</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Cruise [Mach]</t>
+  </si>
+  <si>
+    <t>Vertical Tail Surface Area [m²]</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214E017C-F14A-4AF0-9D63-ED2948F211C0}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,28 +621,28 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="4">
         <v>25970</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4">
         <v>41050</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>18711</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>23133</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>18325</v>
@@ -974,10 +974,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
         <v>22000</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>62250</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>23000</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="10" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="4">
         <v>16150</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <v>40000</v>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>33355</v>
@@ -1872,5 +1872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmss.f"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +153,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -197,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,25 +223,19 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -561,30 +561,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="13" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -621,7 +621,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -789,7 +789,9 @@
       <c r="U3" s="6">
         <v>60.1</v>
       </c>
-      <c r="V3" s="1"/>
+      <c r="V3" s="2">
+        <v>6</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
@@ -1940,8 +1942,8 @@
       <c r="L33" s="7"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -1966,8 +1968,8 @@
       <c r="L34" s="7"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -1992,8 +1994,8 @@
       <c r="L35" s="7"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -2018,8 +2020,8 @@
       <c r="L36" s="7"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -2044,8 +2046,8 @@
       <c r="L37" s="7"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -2070,8 +2072,8 @@
       <c r="L38" s="7"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="10"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -2096,8 +2098,8 @@
       <c r="L39" s="7"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -2122,8 +2124,8 @@
       <c r="L40" s="7"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="10"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -2148,8 +2150,8 @@
       <c r="L41" s="7"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="10"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="7"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -2174,8 +2176,8 @@
       <c r="L42" s="7"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="7"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -2200,8 +2202,8 @@
       <c r="L43" s="7"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="10"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="7"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -2226,8 +2228,8 @@
       <c r="L44" s="7"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="10"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="7"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -2252,8 +2254,8 @@
       <c r="L45" s="7"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="10"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="7"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -2278,8 +2280,8 @@
       <c r="L46" s="7"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="10"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="7"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -2304,8 +2306,8 @@
       <c r="L47" s="7"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="12"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -2330,8 +2332,8 @@
       <c r="L48" s="7"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="10"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="7"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -2356,8 +2358,8 @@
       <c r="L49" s="7"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>

--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Swet-S</t>
+  </si>
+  <si>
+    <t>Bypass ratio</t>
   </si>
   <si>
     <t>Boeing</t>
@@ -654,15 +657,17 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="X1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
         <v>25970</v>
@@ -721,16 +726,18 @@
       <c r="U2" s="5">
         <v>38</v>
       </c>
-      <c r="V2" s="1"/>
+      <c r="V2" s="3">
+        <v>5.6</v>
+      </c>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>41050</v>
@@ -789,18 +796,18 @@
       <c r="U3" s="6">
         <v>60.1</v>
       </c>
-      <c r="V3" s="2">
-        <v>6</v>
+      <c r="V3" s="3">
+        <v>5.8</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <v>18711</v>
@@ -859,16 +866,18 @@
       <c r="U4" s="6">
         <v>35.1</v>
       </c>
-      <c r="V4" s="1"/>
+      <c r="V4" s="3">
+        <v>4.8</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5">
         <v>23133</v>
@@ -927,16 +936,18 @@
       <c r="U5" s="6">
         <v>35.8</v>
       </c>
-      <c r="V5" s="1"/>
+      <c r="V5" s="3">
+        <v>5.1</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>18325</v>
@@ -995,16 +1006,18 @@
       <c r="U6" s="6">
         <v>44.55</v>
       </c>
-      <c r="V6" s="1"/>
+      <c r="V6" s="3">
+        <v>5.6</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>22000</v>
@@ -1063,16 +1076,18 @@
       <c r="U7" s="6">
         <v>47.57</v>
       </c>
-      <c r="V7" s="1"/>
+      <c r="V7" s="3">
+        <v>5.7</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <v>62250</v>
@@ -1131,16 +1146,18 @@
       <c r="U8" s="6">
         <v>51.7</v>
       </c>
-      <c r="V8" s="1"/>
+      <c r="V8" s="3">
+        <v>5.8</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
         <v>23000</v>
@@ -1199,16 +1216,18 @@
       <c r="U9" s="6">
         <v>40.3</v>
       </c>
-      <c r="V9" s="1"/>
+      <c r="V9" s="3">
+        <v>5.6</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5">
         <v>16150</v>
@@ -1267,16 +1286,18 @@
       <c r="U10" s="6">
         <v>35.1</v>
       </c>
-      <c r="V10" s="1"/>
+      <c r="V10" s="3">
+        <v>4.8</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5">
         <v>40000</v>
@@ -1335,16 +1356,18 @@
       <c r="U11" s="6">
         <v>55.57</v>
       </c>
-      <c r="V11" s="1"/>
+      <c r="V11" s="3">
+        <v>5.7</v>
+      </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <v>33355</v>
@@ -1403,7 +1426,9 @@
       <c r="U12" s="6">
         <v>47.35</v>
       </c>
-      <c r="V12" s="1"/>
+      <c r="V12" s="3">
+        <v>5.8</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>

--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -146,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmss.f"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,12 +158,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -206,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -226,35 +220,38 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,30 +561,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -654,7 +651,7 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -729,7 +726,9 @@
       <c r="V2" s="3">
         <v>5.6</v>
       </c>
-      <c r="W2" s="4"/>
+      <c r="W2" s="7">
+        <v>5</v>
+      </c>
       <c r="X2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -799,7 +798,9 @@
       <c r="V3" s="3">
         <v>5.8</v>
       </c>
-      <c r="W3" s="4"/>
+      <c r="W3" s="7">
+        <v>10</v>
+      </c>
       <c r="X3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -869,7 +870,9 @@
       <c r="V4" s="3">
         <v>4.8</v>
       </c>
-      <c r="W4" s="4"/>
+      <c r="W4" s="7">
+        <v>12</v>
+      </c>
       <c r="X4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -939,7 +942,9 @@
       <c r="V5" s="3">
         <v>5.1</v>
       </c>
-      <c r="W5" s="4"/>
+      <c r="W5" s="7">
+        <v>12</v>
+      </c>
       <c r="X5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1009,7 +1014,9 @@
       <c r="V6" s="3">
         <v>5.6</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="8">
+        <v>0.3</v>
+      </c>
       <c r="X6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -1079,7 +1086,9 @@
       <c r="V7" s="3">
         <v>5.7</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="W7" s="7">
+        <v>5</v>
+      </c>
       <c r="X7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -1149,7 +1158,9 @@
       <c r="V8" s="3">
         <v>5.8</v>
       </c>
-      <c r="W8" s="4"/>
+      <c r="W8" s="7">
+        <v>5</v>
+      </c>
       <c r="X8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -1219,7 +1230,9 @@
       <c r="V9" s="3">
         <v>5.6</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
       <c r="X9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1289,7 +1302,9 @@
       <c r="V10" s="3">
         <v>4.8</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="7">
+        <v>12</v>
+      </c>
       <c r="X10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1359,7 +1374,9 @@
       <c r="V11" s="3">
         <v>5.7</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="8">
+        <v>5.4</v>
+      </c>
       <c r="X11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1454,7 +1471,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="3"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
@@ -1480,7 +1497,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="2"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
@@ -1506,7 +1523,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="2"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="3"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
@@ -1532,7 +1549,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="2"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
@@ -1558,7 +1575,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
@@ -1584,7 +1601,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="2"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
@@ -1610,7 +1627,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="3"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
@@ -1636,7 +1653,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="2"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
@@ -1662,7 +1679,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="2"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
@@ -1688,7 +1705,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="2"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
@@ -1714,7 +1731,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="2"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
@@ -1740,15 +1757,15 @@
       <c r="S24" s="3"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="3"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1766,15 +1783,15 @@
       <c r="S25" s="3"/>
       <c r="T25" s="2"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="3"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1792,15 +1809,15 @@
       <c r="S26" s="3"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1818,15 +1835,15 @@
       <c r="S27" s="3"/>
       <c r="T27" s="2"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1844,15 +1861,15 @@
       <c r="S28" s="3"/>
       <c r="T28" s="2"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="3"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1870,15 +1887,15 @@
       <c r="S29" s="3"/>
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="1"/>
+      <c r="V29" s="3"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1896,15 +1913,15 @@
       <c r="S30" s="3"/>
       <c r="T30" s="2"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="1"/>
+      <c r="V30" s="3"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1922,15 +1939,15 @@
       <c r="S31" s="3"/>
       <c r="T31" s="2"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="1"/>
+      <c r="V31" s="3"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1948,449 +1965,449 @@
       <c r="S32" s="3"/>
       <c r="T32" s="2"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="3"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="8"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="8"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="4"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="8"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="4"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="8"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="4"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="8"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="4"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="8"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="4"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="8"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="4"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="8"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="4"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="8"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="4"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="8"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="4"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="8"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="4"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="8"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="4"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="8"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="4"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="8"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="4"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="8"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="4"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="8"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="4"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="8"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>

--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -1446,7 +1446,9 @@
       <c r="V12" s="3">
         <v>5.8</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="7">
+        <v>5</v>
+      </c>
       <c r="X12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">

--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikfe\PycharmProjects\Aircraft-Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BF0EB-D79A-4472-A7DD-7698447555A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet 1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,9 +98,6 @@
     <t>Span[m]</t>
   </si>
   <si>
-    <t>Swet-S</t>
-  </si>
-  <si>
     <t>Bypass ratio</t>
   </si>
   <si>
@@ -137,14 +153,17 @@
   </si>
   <si>
     <t>L-1011-100</t>
+  </si>
+  <si>
+    <t>Swet/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmss.f"/>
+    <numFmt numFmtId="164" formatCode="mmss\.\f"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,68 +219,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,10 +281,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -313,71 +322,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,7 +414,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -428,11 +437,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -441,13 +450,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -457,7 +466,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -466,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -475,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -483,10 +492,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -551,43 +560,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,806 +660,805 @@
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>25970</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>115680</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>58390</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>7222</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>13427</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2350</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>1550</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>178000</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="5">
-        <f>J2*K2</f>
-      </c>
-      <c r="M2" s="6">
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L12" si="0">J2*K2</f>
+        <v>356000</v>
+      </c>
+      <c r="M2" s="5">
         <v>185.2</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>7.8</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>0.27</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>25</v>
       </c>
-      <c r="Q2" s="6">
-        <v>34.37</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="Q2" s="5">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="R2" s="5">
         <v>50.35</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <v>0.8</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>10760</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>38</v>
       </c>
       <c r="V2" s="3">
         <v>5.6</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="6">
         <v>5</v>
       </c>
-      <c r="X2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4">
         <v>41050</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>228000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>119950</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>13530</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>15328</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>3100</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>1520</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>250400</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="5">
-        <f>J3*K3</f>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>500800</v>
+      </c>
+      <c r="M3" s="4">
         <v>325</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>9.59</v>
       </c>
-      <c r="O3" s="6">
-        <v>0.14</v>
-      </c>
-      <c r="P3" s="6">
-        <v>32.2</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>34.8</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="O3" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P3" s="5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R3" s="5">
         <v>78.5</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>0.85</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>10668</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>60.1</v>
       </c>
       <c r="V3" s="3">
         <v>5.8</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>10</v>
       </c>
-      <c r="X3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>18711</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>70896</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>37080</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>6300</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>6850</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1900</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>1510</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>92350</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="5">
-        <f>J4*K4</f>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>184700</v>
+      </c>
+      <c r="M4" s="5">
         <v>112.3</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>10.97</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>0.39</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>35</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>36</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>61</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>0.82</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>11500</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>35.1</v>
       </c>
       <c r="V4" s="3">
         <v>4.8</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>12</v>
       </c>
-      <c r="X4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>23133</v>
+      </c>
+      <c r="D5" s="4">
+        <v>87997</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45450</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7408</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13700</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2210</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1600</v>
+      </c>
+      <c r="J5" s="4">
+        <v>120000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="M5" s="4">
+        <v>128</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="P5" s="4">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>31</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="T5" s="4">
+        <v>8500</v>
+      </c>
+      <c r="U5" s="5">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="V5" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W5" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5">
-        <v>23133</v>
-      </c>
-      <c r="D5" s="5">
-        <v>87997</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45450</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7408</v>
-      </c>
-      <c r="G5" s="5">
-        <v>13700</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2210</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1600</v>
-      </c>
-      <c r="J5" s="5">
-        <v>120000</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5">
-        <f>J5*K5</f>
-      </c>
-      <c r="M5" s="5">
-        <v>128</v>
-      </c>
-      <c r="N5" s="5">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.269</v>
-      </c>
-      <c r="P5" s="5">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>21.5</v>
-      </c>
-      <c r="R5" s="5">
-        <v>31</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="T5" s="5">
-        <v>8500</v>
-      </c>
-      <c r="U5" s="6">
-        <v>35.8</v>
-      </c>
-      <c r="V5" s="3">
-        <v>5.1</v>
-      </c>
-      <c r="W5" s="7">
-        <v>12</v>
-      </c>
-      <c r="X5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>18325</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>141521</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>66670</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>8112</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9765</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2520</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>1940</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>93400</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="L6" s="5">
-        <f>J6*K6</f>
-      </c>
-      <c r="M6" s="6">
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>373600</v>
+      </c>
+      <c r="M6" s="5">
         <v>264.8</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>7.5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.4</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>32.5</v>
       </c>
-      <c r="Q6" s="6">
-        <v>37.16</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q6" s="5">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="R6" s="5">
         <v>88.26</v>
       </c>
-      <c r="S6" s="6">
-        <v>0.795</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="S6" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="T6" s="4">
         <v>7620</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>44.55</v>
       </c>
       <c r="V6" s="3">
         <v>5.6</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>0.3</v>
       </c>
-      <c r="X6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row r="7" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
         <v>22000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>186880</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>90770</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>11305</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>12200</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>2900</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>1800</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>213500</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="5">
-        <f>J7*K7</f>
-      </c>
-      <c r="M7" s="6">
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>427000</v>
+      </c>
+      <c r="M7" s="5">
         <v>283.3</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>7</v>
       </c>
-      <c r="O7" s="6">
-        <v>0.207</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="P7" s="4">
         <v>32</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>46.14</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>77.69</v>
       </c>
-      <c r="S7" s="6">
-        <v>0.847</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="S7" s="5">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="T7" s="4">
         <v>11900</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>47.57</v>
       </c>
       <c r="V7" s="3">
         <v>5.7</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>5</v>
       </c>
-      <c r="X7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    </row>
+    <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>62250</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>273310</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>132800</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>12270</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>13408</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>3100</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>2100</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>267000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>3</v>
       </c>
-      <c r="L8" s="5">
-        <f>J8*K8</f>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>801000</v>
+      </c>
+      <c r="M8" s="4">
         <v>339</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>7.8</v>
       </c>
-      <c r="O8" s="6">
-        <v>0.239</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="O8" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="P8" s="4">
         <v>35</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>56.2</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>85.5</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>0.82</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>11200</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>51.7</v>
       </c>
       <c r="V8" s="3">
         <v>5.8</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>5</v>
       </c>
-      <c r="X8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>23000</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>165000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>74000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>8000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>11050</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>3150</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>2500</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>107900</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>4</v>
       </c>
-      <c r="L9" s="5">
-        <f>J9*K9</f>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>431600</v>
+      </c>
+      <c r="M9" s="5">
         <v>279.5</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>6.68</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>6.68</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>40</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>35.6</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>50.5</v>
       </c>
-      <c r="S9" s="6">
-        <v>0.806</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="S9" s="5">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="T9" s="4">
         <v>10225</v>
       </c>
-      <c r="U9" s="6">
-        <v>40.3</v>
+      <c r="U9" s="5">
+        <v>40.299999999999997</v>
       </c>
       <c r="V9" s="3">
         <v>5.6</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>1</v>
       </c>
-      <c r="X9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>16150</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>61500</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>33300</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>4815</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>10300</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1970</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>1410</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>102000</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="5">
-        <f>J10*K10</f>
-      </c>
-      <c r="M10" s="5">
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>204000</v>
+      </c>
+      <c r="M10" s="4">
         <v>103</v>
       </c>
-      <c r="N10" s="6">
-        <v>9.2</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="N10" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O10" s="5">
         <v>0.3</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>27</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>26.3</v>
       </c>
-      <c r="R10" s="6">
-        <v>32.3</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="R10" s="5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="S10" s="5">
         <v>0.82</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <v>10000</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>35.1</v>
       </c>
       <c r="V10" s="3">
         <v>4.8</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>12</v>
       </c>
-      <c r="X10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
         <v>40000</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>250000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>120400</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>10000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>14000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>2340</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>860</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>156900</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>4</v>
       </c>
-      <c r="L11" s="5">
-        <f>J11*K11</f>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>627600</v>
+      </c>
+      <c r="M11" s="4">
         <v>391</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>7.89</v>
       </c>
-      <c r="O11" s="6">
-        <v>0.279</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="O11" s="5">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P11" s="4">
         <v>30</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>61</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>96.5</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>0.81</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <v>11100</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>55.57</v>
       </c>
       <c r="V11" s="3">
         <v>5.7</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <v>5.4</v>
       </c>
-      <c r="X11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>33355</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>211374</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>111795</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>6862</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>8700</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>2313</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>1725</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>187000</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>3</v>
       </c>
-      <c r="L12" s="5">
-        <f>J12*K12</f>
-      </c>
-      <c r="M12" s="6">
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>561000</v>
+      </c>
+      <c r="M12" s="5">
         <v>321.5</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>6.97</v>
       </c>
-      <c r="O12" s="6">
-        <v>0.259</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="O12" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P12" s="4">
         <v>35</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>51.1</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>119.1</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>0.88</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
         <v>10060</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>47.35</v>
       </c>
       <c r="V12" s="3">
         <v>5.8</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>5</v>
       </c>
-      <c r="X12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1474,10 +1481,8 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    </row>
+    <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1503,7 +1508,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1529,7 +1534,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1555,7 +1560,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1581,7 +1586,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1607,7 +1612,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1633,7 +1638,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1659,7 +1664,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1685,7 +1690,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1711,7 +1716,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1737,7 +1742,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1763,11 +1768,9 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1789,11 +1792,9 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+    <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1815,11 +1816,9 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+    <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1841,11 +1840,9 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+    <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1867,11 +1864,9 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+    <row r="29" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1893,11 +1888,9 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+    <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1919,11 +1912,9 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+    <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1945,11 +1936,9 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+    <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1971,447 +1960,362 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
+    <row r="33" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="9"/>
+    </row>
+    <row r="47" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="9"/>
+    </row>
+    <row r="48" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reference_aircraft.xlsx
+++ b/Reference_aircraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikfe\PycharmProjects\Aircraft-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BF0EB-D79A-4472-A7DD-7698447555A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E0E574-5DC2-43BD-8AD3-1CCEC8DB1E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="25600" windowHeight="15250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Swet/S</t>
+  </si>
+  <si>
+    <t>Swet</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,6 +261,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,6 +671,9 @@
       <c r="W1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -737,6 +746,10 @@
       <c r="W2" s="6">
         <v>5</v>
       </c>
+      <c r="X2">
+        <f>V2*M2</f>
+        <v>1037.1199999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -809,6 +822,10 @@
       <c r="W3" s="6">
         <v>10</v>
       </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X12" si="1">V3*M3</f>
+        <v>1885</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -881,6 +898,10 @@
       <c r="W4" s="6">
         <v>12</v>
       </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>539.04</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -953,6 +974,10 @@
       <c r="W5" s="6">
         <v>12</v>
       </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>652.79999999999995</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1025,6 +1050,10 @@
       <c r="W6" s="7">
         <v>0.3</v>
       </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>1482.8799999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1097,6 +1126,10 @@
       <c r="W7" s="6">
         <v>5</v>
       </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>1614.8100000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1169,6 +1202,10 @@
       <c r="W8" s="6">
         <v>5</v>
       </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>1966.2</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1241,6 +1278,10 @@
       <c r="W9" s="6">
         <v>1</v>
       </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>1565.1999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1313,6 +1354,10 @@
       <c r="W10" s="6">
         <v>12</v>
       </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>494.4</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1385,6 +1430,10 @@
       <c r="W11" s="7">
         <v>5.4</v>
       </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>2228.7000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1456,6 +1505,10 @@
       </c>
       <c r="W12" s="6">
         <v>5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>1864.7</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
